--- a/Inputs/Cigna/benefits.xlsx
+++ b/Inputs/Cigna/benefits.xlsx
@@ -361,6 +361,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">TYPE</t>
     </r>
@@ -593,8 +594,8 @@
       <rPr>
         <sz val="8"/>
         <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Nil/10%, max AED 50/</t>
@@ -605,6 +606,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">20%, max AED 100</t>
     </r>
@@ -616,6 +618,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Nil/10%, max AED 50/</t>
     </r>
@@ -625,6 +628,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">20%, max AED 100</t>
     </r>
@@ -648,7 +652,7 @@
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -705,8 +709,8 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val=""/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -722,18 +726,13 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val=""/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -741,12 +740,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -886,15 +887,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -981,11 +982,11 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C34" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E48" activeCellId="0" sqref="E48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.19921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.04"/>
@@ -3776,7 +3777,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.19921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="10.4"/>
   </cols>

--- a/Inputs/Cigna/benefits.xlsx
+++ b/Inputs/Cigna/benefits.xlsx
@@ -578,10 +578,10 @@
     <t xml:space="preserve">Semi Annual Surcharge</t>
   </si>
   <si>
+    <t xml:space="preserve">Quarterly Surcharge</t>
+  </si>
+  <si>
     <t xml:space="preserve">11%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quarterly Surcharge</t>
   </si>
   <si>
     <t xml:space="preserve">Monthly Surcharge</t>
@@ -982,11 +982,11 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.04"/>
@@ -2400,15 +2400,6 @@
       <c r="B42" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2435,14 +2426,14 @@
       <c r="B43" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>89</v>
+      <c r="C43" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2468,16 +2459,16 @@
         <v>19</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>84</v>
+      <c r="D44" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2505,9 +2496,15 @@
       <c r="B45" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="C45" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -3777,7 +3774,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="10.4"/>
   </cols>

--- a/Inputs/Cigna/benefits.xlsx
+++ b/Inputs/Cigna/benefits.xlsx
@@ -394,7 +394,7 @@
     <t xml:space="preserve">Out-patient (Consultations, Lab &amp; Diagnostics, Pharmacy, Physiotherapy)</t>
   </si>
   <si>
-    <t xml:space="preserve">Out-patient benefits </t>
+    <t xml:space="preserve">Out-patient benefits</t>
   </si>
   <si>
     <t xml:space="preserve">Medicines and diagnostics &amp; lab tests covered in full 
@@ -982,11 +982,11 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.04"/>
@@ -3774,7 +3774,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="10.4"/>
   </cols>

--- a/Inputs/Cigna/benefits.xlsx
+++ b/Inputs/Cigna/benefits.xlsx
@@ -26,58 +26,6 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Nishma P:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Geographical Coverage should reflect as selected</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">======
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">ID#AAAAqYK9nj8
-Nishma P    (2023-03-02 06:55:07)
-Network should reflect as selected</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C17" authorId="0">
       <text>
         <r>
@@ -103,58 +51,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Nishma P:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Geographical Coverage should reflect as selected</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">======
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">ID#AAAAqYK9nj8
-Nishma P    (2023-03-02 06:55:07)
-Network should reflect as selected</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D17" authorId="0">
       <text>
         <r>
@@ -177,33 +73,6 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Consultations covered with NIL co-pay or 20% co-pay with AED 50 or AED 100 max as selected</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">======
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">ID#AAAAqYK9nj8
-Nishma P    (2023-03-02 06:55:07)
-Network should reflect as selected</t>
         </r>
       </text>
     </comment>
@@ -237,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="119">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -370,11 +239,11 @@
   </si>
   <si>
     <t xml:space="preserve">Covered with limits (Medicines covered up to USD 5,000), Diagnostics &amp; lab tests covered in full
-Consultations covered with $</t>
+Consultations covered with $ </t>
   </si>
   <si>
     <t xml:space="preserve">Covered with limits (Medicines covered up to USD 2,500), Diagnostics &amp; lab tests covered in full
-Consultations covered with $_</t>
+Consultations covered with $ </t>
   </si>
   <si>
     <t xml:space="preserve">Out-patient Consultations</t>
@@ -620,15 +489,6 @@
     <t xml:space="preserve">AED 2,750,000</t>
   </si>
   <si>
-    <t xml:space="preserve">Worldwide including US/ Worldwide excluding US</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Neuron Comprehensive
-• Neuron Comprehensive excl. AHD
-• Neuron General Plus 
-• Neuron General</t>
-  </si>
-  <si>
     <t xml:space="preserve">Covered up to AED 150,000 subject to declaration</t>
   </si>
   <si>
@@ -715,7 +575,7 @@
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -836,13 +696,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1116,25 +969,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:X989"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="54.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="56.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="7" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="25" style="0" width="10.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="9.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1679,7 +1534,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
@@ -26305,17 +26160,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E989"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.29"/>
@@ -26323,6 +26178,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="53.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="6" style="0" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="10.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26366,31 +26222,31 @@
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="41.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>101</v>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26446,13 +26302,13 @@
         <v>22</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26590,10 +26446,10 @@
         <v>35</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26641,10 +26497,10 @@
         <v>42</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26658,10 +26514,10 @@
         <v>46</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26715,13 +26571,13 @@
         <v>54</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26749,13 +26605,13 @@
         <v>58</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26766,13 +26622,13 @@
         <v>60</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26794,13 +26650,13 @@
         <v>63</v>
       </c>
       <c r="C30" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="28" t="s">
         <v>112</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26839,7 +26695,7 @@
         <v>70</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D33" s="30" t="s">
         <v>71</v>
@@ -26856,13 +26712,13 @@
         <v>72</v>
       </c>
       <c r="C34" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="30" t="s">
         <v>116</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26879,7 +26735,7 @@
         <v>77</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26890,13 +26746,13 @@
         <v>79</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27010,8 +26866,8 @@
       <c r="B44" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="31" t="n">
-        <v>0.11</v>
+      <c r="C44" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="D44" s="31" t="n">
         <v>0.11</v>
@@ -27044,7 +26900,15 @@
       <c r="B46" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="4"/>
+      <c r="C46" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
@@ -27053,7 +26917,15 @@
       <c r="B47" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="4"/>
+      <c r="C47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
@@ -27062,7 +26934,15 @@
       <c r="B48" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="4"/>
+      <c r="C48" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4"/>

--- a/Inputs/Cigna/benefits.xlsx
+++ b/Inputs/Cigna/benefits.xlsx
@@ -976,7 +976,7 @@
   <dimension ref="A1:X989"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26167,7 +26167,7 @@
   <dimension ref="A1:E989"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Inputs/Cigna/benefits.xlsx
+++ b/Inputs/Cigna/benefits.xlsx
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="97">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -496,7 +496,7 @@
     <t xml:space="preserve">Dental Benefit</t>
   </si>
   <si>
-    <t xml:space="preserve">Dental </t>
+    <t xml:space="preserve">Dental</t>
   </si>
   <si>
     <t xml:space="preserve">Preventative dental treatment covered up to USD 450
@@ -511,7 +511,7 @@
 (Enhanced option available)</t>
   </si>
   <si>
-    <t xml:space="preserve">Dental Waiting Period </t>
+    <t xml:space="preserve">Dental Waiting Period</t>
   </si>
   <si>
     <t xml:space="preserve">3 months wait</t>
@@ -579,9 +579,6 @@
   </si>
   <si>
     <t xml:space="preserve">Quarterly Surcharge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11%</t>
   </si>
   <si>
     <t xml:space="preserve">Monthly Surcharge</t>
@@ -647,10 +644,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -818,7 +814,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -885,10 +881,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -982,11 +974,11 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43:E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.04"/>
@@ -2461,14 +2453,14 @@
       <c r="B44" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>90</v>
+      <c r="C44" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2494,7 +2486,7 @@
         <v>19</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>84</v>
@@ -2529,16 +2521,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="D46" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2564,16 +2556,16 @@
         <v>5</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2602,13 +2594,13 @@
         <v>39</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2707,8 +2699,8 @@
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
       <c r="E52" s="4"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -3770,11 +3762,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C43:E44 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="10.4"/>
   </cols>
